--- a/public/адание 3 ЗУРАБ.xlsx
+++ b/public/адание 3 ЗУРАБ.xlsx
@@ -463,11 +463,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -601,18 +601,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="208.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="151.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.94"/>
   </cols>
   <sheetData>
@@ -620,85 +621,127 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="3" t="str">
+        <f aca="false">IF(A1=0,"&lt;br/&gt;",IF(A1=0,"&lt;br/&gt;",A1))</f>
+        <v>ИТОГ работы отделов&lt;br/&gt;</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="str">
+      <c r="B2" s="3" t="str">
+        <f aca="false">IF(A2=0,"&lt;br/&gt;",IF(A2=0,"&lt;br/&gt;",A2))</f>
+        <v>&lt;hr/&gt;</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="145.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B1=1,'РОБОТЫ И ОБОРОНА'!A4,IF(ОТЧЕТЫ!B2=2,'РОБОТЫ И ОБОРОНА'!B4,'РОБОТЫ И ОБОРОНА'!C6))</f>
         <v>&lt;div class="alert alert-success" role="alert"&gt; Инженеры оборонных систем корабля решили, что нельзя подвергать системы безопасности и экипаж губительному воздействию гамма излучения. Сброс защитного слоя фюзеляжа,  позволил немедленно набрать необходимую скорость, чтобы удалиться от черной дыры. Благодоря слаженной работе экипажа и искусственного интеллекта удалось выбрать оптимальный режим работы и мощности инженерных систем. А роботизированный персонал, вернувшись к своим обязанностям быстро восстанавливал повреждения, возникшие в отсутствие защитного каркаса. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f aca="false">IF(ОТЧЕТЫ!B1=0,"&lt;br/&gt;",IF(A3=0,"&lt;br/&gt;",A3))</f>
+        <v>&lt;br/&gt;</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" s="4" customFormat="true" ht="65.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="B4" s="3" t="str">
+        <f aca="false">IF(A4=0,"&lt;br/&gt;",IF(A4=0,"&lt;br/&gt;",A4))</f>
+        <v>&lt;hr/&gt;</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="134.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="n">
         <f aca="false">IF(ОТЧЕТЫ!B2=2,'РОБОТЫ И ОБОРОНА'!F4,IF(ОТЧЕТЫ!B1=1,'РОБОТЫ И ОБОРОНА'!E4,))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" s="4" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3" t="str">
+        <f aca="false">IF(ОТЧЕТЫ!B2=0,"&lt;br/&gt;",IF(A5=0,"&lt;br/&gt;",A5))</f>
+        <v>&lt;br/&gt;</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="str">
+      <c r="B6" s="3" t="str">
+        <f aca="false">IF(A6=0,"&lt;br/&gt;",IF(A6=0,"&lt;br/&gt;",A6))</f>
+        <v>&lt;hr/&gt;</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="133.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B3=1,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!A4,IF(ОТЧЕТЫ!B4=1,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!C6,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!B4))</f>
-        <v>&lt;div class="alert alert-danger" role="alert"&gt; Получив на руки комплекты самовосстановления, экипаж приступил к работе по спасению звездолета из плена черной дыры. Превысив предельно допустимые для человека значения многие получили серьезные повреждения. Имея на руках стимпакеты многие подготовленные члены экипажа без последствий перенесли перегрузки. Но не все, для большой части экипажа эта задача оказалась не под силу. Кто-то потерял сознание, кто-то поддался панике. Без слаженной работы всего экипажа у космического корабля нет шансов выбраться из этой смертельной ловушки. Корабль теряет скорость и приближается к горизонту событий черной дыры.&lt;/div&gt;</v>
+        <v>&lt;div class="alert alert-danger" role="alert"&gt; Команда медицинсого отдела приняла решение выпустить нанороботов в систему вентиляции. Нанороботы быстро подготовили тех членов экипажа, которые смогли вдохнуть их вместе со свежим воздухом из системы вентиляции. Но после того, как поток воздуха из решеток резко снизился, распространение нанороботов остановилась и большая часть экипажа не перенесла перегрузки. Без слаженной работы всего экипажа у космического корабля нет шансов выбраться из этой смертельной ловушки. Корабль теряет скорость и приближается к горизонту событий черной дыры.&lt;/div&gt;</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f aca="false">IF(ОТЧЕТЫ!B3=0,"&lt;br/&gt;",IF(A7=0,"&lt;br/&gt;",A7))</f>
+        <v>&lt;br/&gt;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B8" s="3" t="str">
+        <f aca="false">IF(A8=0,"&lt;br/&gt;",IF(A8=0,"&lt;br/&gt;",A8))</f>
+        <v>&lt;hr/&gt;</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B4=2,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!F4,IF(ОТЧЕТЫ!B3=2,,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!E4))</f>
-        <v>&lt;div class="alert alert-danger" role="alert"&gt; Корабль быстро набирает скорость и стремительно удаляется от зияющей пасти черной дыры. Совместная работа систем ускорения и навигации уверенно несут его все ближе к спасению. Но вот перегрузки достигли критического значения. Постепенно весь экипаж, начиная от наименее выносливых теряет сознание и не может поддерживать эффективную работу систем. Без слаженной работы всего экипажа у космического корабля нет шансов выбраться из этой смертельной ловушки. Корабль теряет скорость и приближается к горизонту событий черной дыры.&lt;/div&gt;</v>
+        <v>&lt;div class="alert alert-danger" role="alert"&gt; Звездолет начинает удалятся от смертельной опасности. Направив его просто прямо от черной дыры, инженеры сами в состоянии поддерживать работу автоматики. Но надежда на спасение быстро сменяется тревогой в глазах товарищей, когда они понимают через какие нагрузки им прийдется пройти. Инженеры не способны одновременно поддерживать свою жизнеспособность и функционирование космического корабля. Хватаясь за полученные от медиков стимпаки пилоты и навигаторы валятся на пол, пытаясь привести себя в норму. Тем временем, звезолет направляется в черную дыру...&lt;/div&gt;</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f aca="false">IF(ОТЧЕТЫ!B4=0,"&lt;br/&gt;",IF(A9=0,"&lt;br/&gt;",A9))</f>
+        <v>&lt;br/&gt;</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="3" t="str">
+        <f aca="false">IF(A10=0,"&lt;br/&gt;",IF(A10=0,"&lt;br/&gt;",A10))</f>
+        <v>&lt;hr/&gt;</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B5=1,'Космобиолог и астроном  '!A4,IF(ОТЧЕТЫ!B6=1,'Космобиолог и астроном  '!C5,'Космобиолог и астроном  '!B4))</f>
-        <v>&lt;div class="alert alert-success" role="alert"&gt;Специалисты космической биологии успешно устранили токсин вместе со всей биосферой, поддерживающей жизнедеятельность экипажа, но благодаря остаточной повышенной гравитации, новый урожай продуцирующих кислород и питатальные вещества растений взошел в стремительно-рекордные сроки. А астеройд черной материи был удачно отброшен обратно в космос одним из четырех гравиэкранов. Звездолет готов к путешествию и ничего не стоит на его пути. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
+        <v>&lt;div class="alert alert-danger" role="alert"&gt;Отдел космобиологии принял решение уничтожить, продуцирующую жизненноважные вещества биосферу и насадить новую. Но так как были приняты меры по нивелированию эффекта избыточной гравитации, культуры будут развиваться слишком долго.  В течение нескольких минут количество кислорода в воздухе падает настолько, что члены экипажа падают без сознания. Корабль без управления отдан во власть черной дыры.&lt;/div&gt;</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f aca="false">IF(ОТЧЕТЫ!B5=0,"&lt;br/&gt;",IF(A11=0,"&lt;br/&gt;",A11))</f>
+        <v>&lt;br/&gt;</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="65.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="n">
+      <c r="B12" s="3" t="str">
+        <f aca="false">IF(A12=0,"&lt;br/&gt;",IF(A12=0,"&lt;br/&gt;",A12))</f>
+        <v>&lt;hr/&gt;</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B6=2,'Космобиолог и астроном  '!F4,IF(ОТЧЕТЫ!B5=2,,'Космобиолог и астроном  '!E4))</f>
-        <v>0</v>
+        <v>&lt;div class="alert alert-danger" role="alert"&gt;Отдел астронавигации не любит рисковать. По этому часть гравиэкранов осталось на защиту звездолета от угроз прямо по курсу. И как раз вовремя, так как огромный, поглащающий свет булыжник с зловещим гудением приблизился к корпусу корабля, но затем, столкнувшись с невидимым упругим барьером, словно резиновый мячик отпрыгнул в сторону. Экипаж корабля почувствовал облегчение, а вместе с ним и поначалу легкое головокружение. Знающие специалисты диагностировали у себя кислородное голодание. .  В течение нескольких минут количество кислорода в воздухе падает настолько, что члены экипажа падают без сознания. Корабль без управления отдан во власть черной дыры.&lt;/div&gt;</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f aca="false">IF(ОТЧЕТЫ!B6=0,"&lt;br/&gt;",IF(A13=0,"&lt;br/&gt;",A13))</f>
+        <v>&lt;br/&gt;</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A13">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="&lt;div class=&quot;alert alert-danger&quot; role=&quot;alert&quot;&gt; Корабль быстро набирает скорость и стремительно удаляется от зияющей пасти черной дыры. Совместная работа систем ускорения и навигации уверенно несут его все ближе к спасению. Но вот перегрузки достигли критического значения. Постепенно весь экипаж, начиная от наименее выносливых теряет сознание и не может поддерживать эффективную работу систем. Без слаженной работы всего экипажа у космического корабля нет шансов выбраться из этой смертельной ловушки. Корабль теряет скорость и приближается к горизонту событий черной дыры.&lt;/div&gt;"/>
-        <filter val="&lt;div class=&quot;alert alert-danger&quot; role=&quot;alert&quot;&gt; Получив на руки комплекты самовосстановления, экипаж приступил к работе по спасению звездолета из плена черной дыры. Превысив предельно допустимые для человека значения многие получили серьезные повреждения. Имея на руках стимпакеты многие подготовленные члены экипажа без последствий перенесли перегрузки. Но не все, для большой части экипажа эта задача оказалась не под силу. Кто-то потерял сознание, кто-то поддался панике. Без слаженной работы всего экипажа у космического корабля нет шансов выбраться из этой смертельной ловушки. Корабль теряет скорость и приближается к горизонту событий черной дыры.&lt;/div&gt;"/>
-        <filter val="&lt;div class=&quot;alert alert-success&quot; role=&quot;alert&quot;&gt; Инженеры оборонных систем корабля решили, что нельзя подвергать системы безопасности и экипаж губительному воздействию гамма излучения. Сброс защитного слоя фюзеляжа,  позволил немедленно набрать необходимую скорость, чтобы удалиться от черной дыры. Благодоря слаженной работе экипажа и искусственного интеллекта удалось выбрать оптимальный режим работы и мощности инженерных систем. А роботизированный персонал, вернувшись к своим обязанностям быстро восстанавливал повреждения, возникшие в отсутствие защитного каркаса. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;"/>
-        <filter val="&lt;div class=&quot;alert alert-success&quot; role=&quot;alert&quot;&gt;Специалисты космической биологии успешно устранили токсин вместе со всей биосферой, поддерживающей жизнедеятельность экипажа, но благодаря остаточной повышенной гравитации, новый урожай продуцирующих кислород и питатальные вещества растений взошел в стремительно-рекордные сроки. А астеройд черной материи был удачно отброшен обратно в космос одним из четырех гравиэкранов. Звездолет готов к путешествию и ничего не стоит на его пути. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;"/>
-        <filter val="&lt;hr/&gt;"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:A13"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -718,10 +761,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.26"/>
   </cols>
@@ -731,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -739,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -747,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -755,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -771,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -796,12 +839,12 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="30.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="61.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.14"/>
   </cols>
@@ -916,11 +959,11 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="33.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="49.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="44.14"/>
   </cols>
@@ -1035,11 +1078,11 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="55.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="47.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="55.29"/>
   </cols>

--- a/public/адание 3 ЗУРАБ.xlsx
+++ b/public/адание 3 ЗУРАБ.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" s="3" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B1=0,"&lt;br/&gt;",IF(A3=0,"&lt;br/&gt;",A3))</f>
-        <v>&lt;br/&gt;</v>
+        <v>&lt;div class="alert alert-success" role="alert"&gt; Инженеры оборонных систем корабля решили, что нельзя подвергать системы безопасности и экипаж губительному воздействию гамма излучения. Сброс защитного слоя фюзеляжа,  позволил немедленно набрать необходимую скорость, чтобы удалиться от черной дыры. Благодоря слаженной работе экипажа и искусственного интеллекта удалось выбрать оптимальный режим работы и мощности инженерных систем. А роботизированный персонал, вернувшись к своим обязанностям быстро восстанавливал повреждения, возникшие в отсутствие защитного каркаса. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -676,11 +676,11 @@
     <row r="7" customFormat="false" ht="133.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B3=1,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!A4,IF(ОТЧЕТЫ!B4=1,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!C6,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!B4))</f>
-        <v>&lt;div class="alert alert-danger" role="alert"&gt; Команда медицинсого отдела приняла решение выпустить нанороботов в систему вентиляции. Нанороботы быстро подготовили тех членов экипажа, которые смогли вдохнуть их вместе со свежим воздухом из системы вентиляции. Но после того, как поток воздуха из решеток резко снизился, распространение нанороботов остановилась и большая часть экипажа не перенесла перегрузки. Без слаженной работы всего экипажа у космического корабля нет шансов выбраться из этой смертельной ловушки. Корабль теряет скорость и приближается к горизонту событий черной дыры.&lt;/div&gt;</v>
+        <v>&lt;div class="alert alert-success" role="alert"&gt;Увеличив мощность двигателей и направив корабль вручную прочь от горизонта событий черной дыры пилоты почувствовали металлический привкус во рту. Это нанороботы, выпущенные медицинской командой в систему вентиляции начали свою работу по укреплению структурной целостности организма членов экипажа. Теперь все перегрузки ощущаются гораздо легче и так как вентиляция работает на полную мощность никто из экипажа не покинет свой пост и сможет выпонить свою задачу. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
       </c>
       <c r="B7" s="3" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B3=0,"&lt;br/&gt;",IF(A7=0,"&lt;br/&gt;",A7))</f>
-        <v>&lt;br/&gt;</v>
+        <v>&lt;div class="alert alert-success" role="alert"&gt;Увеличив мощность двигателей и направив корабль вручную прочь от горизонта событий черной дыры пилоты почувствовали металлический привкус во рту. Это нанороботы, выпущенные медицинской командой в систему вентиляции начали свою работу по укреплению структурной целостности организма членов экипажа. Теперь все перегрузки ощущаются гораздо легче и так как вентиляция работает на полную мощность никто из экипажа не покинет свой пост и сможет выпонить свою задачу. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -693,9 +693,9 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="str">
+      <c r="A9" s="5" t="n">
         <f aca="false">IF(ОТЧЕТЫ!B4=2,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!F4,IF(ОТЧЕТЫ!B3=2,,'ПАРАМЕДИК и ИНЕНЕРКОНСТРУКТОР'!E4))</f>
-        <v>&lt;div class="alert alert-danger" role="alert"&gt; Звездолет начинает удалятся от смертельной опасности. Направив его просто прямо от черной дыры, инженеры сами в состоянии поддерживать работу автоматики. Но надежда на спасение быстро сменяется тревогой в глазах товарищей, когда они понимают через какие нагрузки им прийдется пройти. Инженеры не способны одновременно поддерживать свою жизнеспособность и функционирование космического корабля. Хватаясь за полученные от медиков стимпаки пилоты и навигаторы валятся на пол, пытаясь привести себя в норму. Тем временем, звезолет направляется в черную дыру...&lt;/div&gt;</v>
+        <v>0</v>
       </c>
       <c r="B9" s="3" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B4=0,"&lt;br/&gt;",IF(A9=0,"&lt;br/&gt;",A9))</f>
@@ -714,11 +714,11 @@
     <row r="11" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B5=1,'Космобиолог и астроном  '!A4,IF(ОТЧЕТЫ!B6=1,'Космобиолог и астроном  '!C5,'Космобиолог и астроном  '!B4))</f>
-        <v>&lt;div class="alert alert-danger" role="alert"&gt;Отдел космобиологии принял решение уничтожить, продуцирующую жизненноважные вещества биосферу и насадить новую. Но так как были приняты меры по нивелированию эффекта избыточной гравитации, культуры будут развиваться слишком долго.  В течение нескольких минут количество кислорода в воздухе падает настолько, что члены экипажа падают без сознания. Корабль без управления отдан во власть черной дыры.&lt;/div&gt;</v>
+        <v>&lt;div class="alert alert-success" role="alert"&gt;Специалисты космической биологии успешно устранили токсин вместе со всей биосферой, поддерживающей жизнедеятельность экипажа, но благодаря остаточной повышенной гравитации, новый урожай продуцирующих кислород и питатальные вещества растений взошел в стремительно-рекордные сроки. А астеройд черной материи был удачно отброшен обратно в космос одним из четырех гравиэкранов. Звездолет готов к путешествию и ничего не стоит на его пути. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
       </c>
       <c r="B11" s="3" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B5=0,"&lt;br/&gt;",IF(A11=0,"&lt;br/&gt;",A11))</f>
-        <v>&lt;br/&gt;</v>
+        <v>&lt;div class="alert alert-success" role="alert"&gt;Специалисты космической биологии успешно устранили токсин вместе со всей биосферой, поддерживающей жизнедеятельность экипажа, но благодаря остаточной повышенной гравитации, новый урожай продуцирующих кислород и питатальные вещества растений взошел в стремительно-рекордные сроки. А астеройд черной материи был удачно отброшен обратно в космос одним из четырех гравиэкранов. Звездолет готов к путешествию и ничего не стоит на его пути. ОТЛИЧНАЯ РАБОТА!&lt;/div&gt;</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -731,9 +731,9 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="65.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="str">
+      <c r="A13" s="5" t="n">
         <f aca="false">IF(ОТЧЕТЫ!B6=2,'Космобиолог и астроном  '!F4,IF(ОТЧЕТЫ!B5=2,,'Космобиолог и астроном  '!E4))</f>
-        <v>&lt;div class="alert alert-danger" role="alert"&gt;Отдел астронавигации не любит рисковать. По этому часть гравиэкранов осталось на защиту звездолета от угроз прямо по курсу. И как раз вовремя, так как огромный, поглащающий свет булыжник с зловещим гудением приблизился к корпусу корабля, но затем, столкнувшись с невидимым упругим барьером, словно резиновый мячик отпрыгнул в сторону. Экипаж корабля почувствовал облегчение, а вместе с ним и поначалу легкое головокружение. Знающие специалисты диагностировали у себя кислородное голодание. .  В течение нескольких минут количество кислорода в воздухе падает настолько, что члены экипажа падают без сознания. Корабль без управления отдан во власть черной дыры.&lt;/div&gt;</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3" t="str">
         <f aca="false">IF(ОТЧЕТЫ!B6=0,"&lt;br/&gt;",IF(A13=0,"&lt;br/&gt;",A13))</f>
@@ -761,7 +761,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -774,7 +774,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -782,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -798,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +806,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -814,7 +814,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
